--- a/benchmarktests/testdefinitions/Benchmartktest_traject 13-3.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 13-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF19F6-1EDF-436C-A64F-6B80F50BF4C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7791A29A-EEDD-4A0F-A771-79B223C3A0F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7665" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-28800" yWindow="7800" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="202">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>Vak 104</t>
+  </si>
+  <si>
+    <t>Trajectlengte</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2688,7 @@
   </sheetPr>
   <dimension ref="B1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D106"/>
     </sheetView>
   </sheetViews>
@@ -6988,8 +6991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7032,7 +7035,7 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
@@ -7044,10 +7047,16 @@
         <v>1.111111111111111E-5</v>
       </c>
       <c r="F4" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="9">
+        <v>19.744</v>
+      </c>
       <c r="D5" s="60" t="s">
         <v>42</v>
       </c>
@@ -7091,7 +7100,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27">
         <f>E7</f>
@@ -7217,7 +7226,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 13-3.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 13-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4AF03D-BD00-4C30-B89D-034ECEEF2F87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76A872-AA51-4E4A-9A64-EA7319230A6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{0831170E-5124-493D-8FBC-5E58312EFD65}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="203">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>Lengte-effect</t>
+  </si>
+  <si>
+    <t>Gecombineerd (tussentijds)</t>
   </si>
 </sst>
 </file>
@@ -2679,51 +2682,55 @@
   <sheetPr>
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
-  <dimension ref="B1:K135"/>
+  <dimension ref="B1:L135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="H2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="K2" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="L2" s="49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2731,39 +2738,43 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(E3:K3,"D")&gt;0,"D",IF(COUNTIF(E3:K3,"-III")&gt;0,"-III",IF(COUNTIF(E3:K3,"-II")&gt;0,"-II",IF(COUNTIF(E3:K3,"-I")&gt;0,"-I",IF(COUNTIF(E3:K3,"+0")&gt;0,"+0",IF(COUNTIF(E3:K3,"+I")&gt;0,"+I",IF(COUNTIF(E3:K3,"+II")&gt;0,"+II",IF(COUNTIF(E3:K3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
         <v>+I</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" ref="E3:E66" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <v>+I</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B3,C3),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="array" ref="I3">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B3,C3),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+I</v>
       </c>
-      <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L3" s="7" t="str">
+        <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>0.63800000000000001</v>
       </c>
@@ -2775,35 +2786,39 @@
         <v>+II</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="array" ref="F4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B4,C4),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I4">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B4,C4),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L4" s="12" t="str">
+        <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>0.83599999999999997</v>
       </c>
@@ -2815,35 +2830,39 @@
         <v>+II</v>
       </c>
       <c r="E5" s="8" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="array" ref="F5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B5,C5),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I5">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B5,C5),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>1.038</v>
       </c>
@@ -2855,35 +2874,39 @@
         <v>+II</v>
       </c>
       <c r="E6" s="8" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="array" ref="F6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B6,C6),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I6">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B6,C6),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>1.2390000000000001</v>
       </c>
@@ -2895,35 +2918,39 @@
         <v>+II</v>
       </c>
       <c r="E7" s="8" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="array" ref="F7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B7,C7),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I7">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B7,C7),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>1.4359999999999999</v>
       </c>
@@ -2935,35 +2962,39 @@
         <v>+III</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="array" ref="F8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B8,C8),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I8">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B8,C8),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1.631</v>
       </c>
@@ -2975,35 +3006,39 @@
         <v>+III</v>
       </c>
       <c r="E9" s="8" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B9,C9),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I9">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B9,C9),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>1.8280000000000001</v>
       </c>
@@ -3015,35 +3050,39 @@
         <v>+III</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="array" ref="F10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B10,C10),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I10">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B10,C10),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>2.028</v>
       </c>
@@ -3055,35 +3094,39 @@
         <v>+III</v>
       </c>
       <c r="E11" s="8" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="array" ref="F11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B11,C11),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I11">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B11,C11),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>2.2290000000000001</v>
       </c>
@@ -3095,35 +3138,39 @@
         <v>+III</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f t="array" ref="E12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F12" s="9" t="str">
-        <f t="array" ref="F12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="array" ref="F12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B12,C12),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I12">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B12,C12),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J12" s="9" t="str">
-        <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="array" ref="K12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="array" ref="K12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="array" ref="L12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>2.4289999999999998</v>
       </c>
@@ -3135,35 +3182,39 @@
         <v>+III</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f t="array" ref="E13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F13" s="9" t="str">
-        <f t="array" ref="F13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F13" s="8" t="str">
+        <f t="array" ref="F13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B13,C13),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I13">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B13,C13),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J13" s="9" t="str">
-        <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="array" ref="K13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="array" ref="L13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>2.63</v>
       </c>
@@ -3175,35 +3226,39 @@
         <v>+III</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f t="array" ref="E14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F14" s="9" t="str">
-        <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f t="array" ref="F14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B14,C14),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f t="array" ref="I14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I14">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B14,C14),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f t="array" ref="J14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="array" ref="K14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>2.83</v>
       </c>
@@ -3215,35 +3270,39 @@
         <v>+III</v>
       </c>
       <c r="E15" s="8" t="str">
-        <f t="array" ref="E15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F15" s="9" t="str">
-        <f t="array" ref="F15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f t="array" ref="F15">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B15,C15),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f t="array" ref="G15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f t="array" ref="H15">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B15,C15),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I15" s="9" t="str">
-        <f t="array" ref="I15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I15">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B15,C15),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J15" s="9" t="str">
-        <f t="array" ref="J15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="array" ref="K15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="array" ref="K15">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="array" ref="L15">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>3.03</v>
       </c>
@@ -3255,35 +3314,39 @@
         <v>+III</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f t="array" ref="E16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F16" s="9" t="str">
-        <f t="array" ref="F16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f t="array" ref="F16">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B16,C16),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f t="array" ref="G16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f t="array" ref="H16">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B16,C16),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I16" s="9" t="str">
-        <f t="array" ref="I16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I16">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B16,C16),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J16" s="9" t="str">
-        <f t="array" ref="J16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="array" ref="K16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="array" ref="K16">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="array" ref="L16">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>3.234</v>
       </c>
@@ -3295,35 +3358,39 @@
         <v>+III</v>
       </c>
       <c r="E17" s="8" t="str">
-        <f t="array" ref="E17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F17" s="9" t="str">
-        <f t="array" ref="F17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F17" s="8" t="str">
+        <f t="array" ref="F17">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B17,C17),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="array" ref="G17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f t="array" ref="H17">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B17,C17),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I17" s="9" t="str">
-        <f t="array" ref="I17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I17">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B17,C17),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J17" s="9" t="str">
-        <f t="array" ref="J17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="array" ref="K17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="array" ref="K17">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="array" ref="L17">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>3.4359999999999999</v>
       </c>
@@ -3335,35 +3402,39 @@
         <v>+II</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f t="array" ref="E18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F18" s="9" t="str">
-        <f t="array" ref="F18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="array" ref="F18">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B18,C18),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="array" ref="G18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f t="array" ref="H18">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B18,C18),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I18" s="9" t="str">
-        <f t="array" ref="I18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I18">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B18,C18),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J18" s="9" t="str">
-        <f t="array" ref="J18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K18" s="12" t="str">
-        <f t="array" ref="K18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f t="array" ref="K18">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L18" s="12" t="str">
+        <f t="array" ref="L18">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>3.6360000000000001</v>
       </c>
@@ -3375,35 +3446,39 @@
         <v>+III</v>
       </c>
       <c r="E19" s="8" t="str">
-        <f t="array" ref="E19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F19" s="9" t="str">
-        <f t="array" ref="F19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="array" ref="F19">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B19,C19),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="array" ref="G19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f t="array" ref="H19">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B19,C19),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I19" s="9" t="str">
-        <f t="array" ref="I19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I19">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B19,C19),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f t="array" ref="J19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K19" s="12" t="str">
-        <f t="array" ref="K19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="array" ref="K19">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L19" s="12" t="str">
+        <f t="array" ref="L19">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>3.835</v>
       </c>
@@ -3415,35 +3490,39 @@
         <v>+III</v>
       </c>
       <c r="E20" s="8" t="str">
-        <f t="array" ref="E20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F20" s="9" t="str">
-        <f t="array" ref="F20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="array" ref="F20">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B20,C20),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G20" s="9" t="str">
-        <f t="array" ref="G20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H20" s="9" t="str">
-        <f t="array" ref="H20">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B20,C20),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I20" s="9" t="str">
-        <f t="array" ref="I20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I20">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B20,C20),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J20" s="9" t="str">
-        <f t="array" ref="J20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K20" s="12" t="str">
-        <f t="array" ref="K20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="array" ref="K20">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L20" s="12" t="str">
+        <f t="array" ref="L20">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>4.032</v>
       </c>
@@ -3455,35 +3534,39 @@
         <v>+III</v>
       </c>
       <c r="E21" s="8" t="str">
-        <f t="array" ref="E21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F21" s="9" t="str">
-        <f t="array" ref="F21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f t="array" ref="F21">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B21,C21),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G21" s="9" t="str">
-        <f t="array" ref="G21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H21" s="9" t="str">
-        <f t="array" ref="H21">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B21,C21),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I21" s="9" t="str">
-        <f t="array" ref="I21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I21">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B21,C21),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J21" s="9" t="str">
-        <f t="array" ref="J21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K21" s="12" t="str">
-        <f t="array" ref="K21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K21" s="9" t="str">
+        <f t="array" ref="K21">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L21" s="12" t="str">
+        <f t="array" ref="L21">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>4.2309999999999999</v>
       </c>
@@ -3495,35 +3578,39 @@
         <v>+III</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f t="array" ref="E22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F22" s="9" t="str">
-        <f t="array" ref="F22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f t="array" ref="F22">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B22,C22),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f t="array" ref="G22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H22" s="9" t="str">
-        <f t="array" ref="H22">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B22,C22),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I22" s="9" t="str">
-        <f t="array" ref="I22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I22">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B22,C22),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J22" s="9" t="str">
-        <f t="array" ref="J22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K22" s="12" t="str">
-        <f t="array" ref="K22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f t="array" ref="K22">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L22" s="12" t="str">
+        <f t="array" ref="L22">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>4.4320000000000004</v>
       </c>
@@ -3535,35 +3622,39 @@
         <v>+III</v>
       </c>
       <c r="E23" s="8" t="str">
-        <f t="array" ref="E23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F23" s="9" t="str">
-        <f t="array" ref="F23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f t="array" ref="F23">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B23,C23),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f t="array" ref="G23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H23" s="9" t="str">
-        <f t="array" ref="H23">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B23,C23),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I23" s="9" t="str">
-        <f t="array" ref="I23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I23">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B23,C23),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J23" s="9" t="str">
-        <f t="array" ref="J23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K23" s="12" t="str">
-        <f t="array" ref="K23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f t="array" ref="K23">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L23" s="12" t="str">
+        <f t="array" ref="L23">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>4.6319999999999997</v>
       </c>
@@ -3575,35 +3666,39 @@
         <v>+III</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f t="array" ref="E24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F24" s="9" t="str">
-        <f t="array" ref="F24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f t="array" ref="F24">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B24,C24),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="array" ref="G24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H24" s="9" t="str">
-        <f t="array" ref="H24">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B24,C24),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I24" s="9" t="str">
-        <f t="array" ref="I24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I24">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B24,C24),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f t="array" ref="J24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K24" s="12" t="str">
-        <f t="array" ref="K24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="array" ref="K24">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L24" s="12" t="str">
+        <f t="array" ref="L24">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>4.8319999999999999</v>
       </c>
@@ -3615,35 +3710,39 @@
         <v>+III</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f t="array" ref="E25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F25" s="9" t="str">
-        <f t="array" ref="F25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f t="array" ref="F25">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B25,C25),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="array" ref="G25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f t="array" ref="H25">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B25,C25),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I25" s="9" t="str">
-        <f t="array" ref="I25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I25">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B25,C25),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f t="array" ref="J25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K25" s="12" t="str">
-        <f t="array" ref="K25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f t="array" ref="K25">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L25" s="12" t="str">
+        <f t="array" ref="L25">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>5.032</v>
       </c>
@@ -3655,35 +3754,39 @@
         <v>+III</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f t="array" ref="E26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F26" s="9" t="str">
-        <f t="array" ref="F26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f t="array" ref="F26">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B26,C26),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="array" ref="G26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H26" s="9" t="str">
-        <f t="array" ref="H26">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B26,C26),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I26" s="9" t="str">
-        <f t="array" ref="I26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I26">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B26,C26),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J26" s="9" t="str">
-        <f t="array" ref="J26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K26" s="12" t="str">
-        <f t="array" ref="K26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K26" s="9" t="str">
+        <f t="array" ref="K26">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L26" s="12" t="str">
+        <f t="array" ref="L26">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>5.2309999999999999</v>
       </c>
@@ -3695,35 +3798,39 @@
         <v>+III</v>
       </c>
       <c r="E27" s="8" t="str">
-        <f t="array" ref="E27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F27" s="9" t="str">
-        <f t="array" ref="F27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f t="array" ref="F27">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B27,C27),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="array" ref="G27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H27" s="9" t="str">
-        <f t="array" ref="H27">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B27,C27),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I27" s="9" t="str">
-        <f t="array" ref="I27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I27">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B27,C27),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J27" s="9" t="str">
-        <f t="array" ref="J27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K27" s="12" t="str">
-        <f t="array" ref="K27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K27" s="9" t="str">
+        <f t="array" ref="K27">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L27" s="12" t="str">
+        <f t="array" ref="L27">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>5.431</v>
       </c>
@@ -3735,35 +3842,39 @@
         <v>+III</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f t="array" ref="E28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F28" s="9" t="str">
-        <f t="array" ref="F28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F28" s="8" t="str">
+        <f t="array" ref="F28">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B28,C28),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="array" ref="G28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H28" s="9" t="str">
-        <f t="array" ref="H28">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B28,C28),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I28" s="9" t="str">
-        <f t="array" ref="I28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I28">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B28,C28),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J28" s="9" t="str">
-        <f t="array" ref="J28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K28" s="12" t="str">
-        <f t="array" ref="K28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K28" s="9" t="str">
+        <f t="array" ref="K28">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L28" s="12" t="str">
+        <f t="array" ref="L28">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>5.6310000000000002</v>
       </c>
@@ -3775,35 +3886,39 @@
         <v>+III</v>
       </c>
       <c r="E29" s="8" t="str">
-        <f t="array" ref="E29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F29" s="9" t="str">
-        <f t="array" ref="F29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F29" s="8" t="str">
+        <f t="array" ref="F29">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B29,C29),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="array" ref="G29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H29" s="9" t="str">
-        <f t="array" ref="H29">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B29,C29),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I29" s="9" t="str">
-        <f t="array" ref="I29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I29">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B29,C29),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J29" s="9" t="str">
-        <f t="array" ref="J29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K29" s="12" t="str">
-        <f t="array" ref="K29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f t="array" ref="K29">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L29" s="12" t="str">
+        <f t="array" ref="L29">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>5.8330000000000002</v>
       </c>
@@ -3815,35 +3930,39 @@
         <v>+III</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f t="array" ref="E30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F30" s="9" t="str">
-        <f t="array" ref="F30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f t="array" ref="F30">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B30,C30),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="array" ref="G30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f t="array" ref="H30">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B30,C30),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I30" s="9" t="str">
-        <f t="array" ref="I30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I30">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B30,C30),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J30" s="9" t="str">
-        <f t="array" ref="J30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K30" s="12" t="str">
-        <f t="array" ref="K30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f t="array" ref="K30">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L30" s="12" t="str">
+        <f t="array" ref="L30">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>6.03</v>
       </c>
@@ -3855,35 +3974,39 @@
         <v>+III</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f t="array" ref="E31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F31" s="9" t="str">
-        <f t="array" ref="F31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F31" s="8" t="str">
+        <f t="array" ref="F31">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B31,C31),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="array" ref="G31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f t="array" ref="H31">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B31,C31),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f t="array" ref="I31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I31">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B31,C31),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f t="array" ref="J31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K31" s="12" t="str">
-        <f t="array" ref="K31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K31" s="9" t="str">
+        <f t="array" ref="K31">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L31" s="12" t="str">
+        <f t="array" ref="L31">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>6.2249999999999996</v>
       </c>
@@ -3895,35 +4018,39 @@
         <v>+III</v>
       </c>
       <c r="E32" s="8" t="str">
-        <f t="array" ref="E32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F32" s="9" t="str">
-        <f t="array" ref="F32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F32" s="8" t="str">
+        <f t="array" ref="F32">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B32,C32),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="array" ref="G32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f t="array" ref="H32">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B32,C32),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I32" s="9" t="str">
-        <f t="array" ref="I32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I32">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B32,C32),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J32" s="9" t="str">
-        <f t="array" ref="J32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K32" s="12" t="str">
-        <f t="array" ref="K32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K32" s="9" t="str">
+        <f t="array" ref="K32">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L32" s="12" t="str">
+        <f t="array" ref="L32">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>6.4260000000000002</v>
       </c>
@@ -3935,35 +4062,39 @@
         <v>+III</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f t="array" ref="E33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F33" s="9" t="str">
-        <f t="array" ref="F33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F33" s="8" t="str">
+        <f t="array" ref="F33">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B33,C33),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="array" ref="G33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="array" ref="H33">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B33,C33),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I33" s="9" t="str">
-        <f t="array" ref="I33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I33">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B33,C33),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f t="array" ref="J33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K33" s="12" t="str">
-        <f t="array" ref="K33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="array" ref="K33">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L33" s="12" t="str">
+        <f t="array" ref="L33">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>6.6280000000000001</v>
       </c>
@@ -3975,35 +4106,39 @@
         <v>+III</v>
       </c>
       <c r="E34" s="8" t="str">
-        <f t="array" ref="E34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F34" s="9" t="str">
-        <f t="array" ref="F34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f t="array" ref="F34">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B34,C34),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f t="array" ref="G34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H34" s="9" t="str">
-        <f t="array" ref="H34">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B34,C34),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I34" s="9" t="str">
-        <f t="array" ref="I34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I34">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B34,C34),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J34" s="9" t="str">
-        <f t="array" ref="J34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K34" s="12" t="str">
-        <f t="array" ref="K34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K34" s="9" t="str">
+        <f t="array" ref="K34">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L34" s="12" t="str">
+        <f t="array" ref="L34">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>6.8289999999999997</v>
       </c>
@@ -4015,35 +4150,39 @@
         <v>+III</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f t="array" ref="E35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F35" s="9" t="str">
-        <f t="array" ref="F35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="F35" s="8" t="str">
+        <f t="array" ref="F35">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B35,C35),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="array" ref="G35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H35" s="9" t="str">
-        <f t="array" ref="H35">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B35,C35),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f t="array" ref="I35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I35">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B35,C35),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f t="array" ref="J35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K35" s="12" t="str">
-        <f t="array" ref="K35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f t="array" ref="K35">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L35" s="12" t="str">
+        <f t="array" ref="L35">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>7.0270000000000001</v>
       </c>
@@ -4055,35 +4194,39 @@
         <v>+0</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f t="array" ref="E36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F36" s="9" t="str">
-        <f t="array" ref="F36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+0</v>
+      </c>
+      <c r="F36" s="8" t="str">
+        <f t="array" ref="F36">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B36,C36),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="array" ref="G36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f t="array" ref="H36">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B36,C36),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I36" s="9" t="str">
+        <f t="array" ref="I36">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B36,C36),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+0</v>
       </c>
-      <c r="I36" s="9" t="str">
-        <f t="array" ref="I36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="J36" s="9" t="str">
-        <f t="array" ref="J36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K36" s="12" t="str">
-        <f t="array" ref="K36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K36" s="9" t="str">
+        <f t="array" ref="K36">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L36" s="12" t="str">
+        <f t="array" ref="L36">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>7.2210000000000001</v>
       </c>
@@ -4095,35 +4238,39 @@
         <v>+0</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f t="array" ref="E37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F37" s="9" t="str">
-        <f t="array" ref="F37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+0</v>
+      </c>
+      <c r="F37" s="8" t="str">
+        <f t="array" ref="F37">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B37,C37),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="array" ref="G37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f t="array" ref="H37">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B37,C37),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I37" s="9" t="str">
+        <f t="array" ref="I37">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B37,C37),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+0</v>
       </c>
-      <c r="I37" s="9" t="str">
-        <f t="array" ref="I37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="J37" s="9" t="str">
-        <f t="array" ref="J37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K37" s="12" t="str">
-        <f t="array" ref="K37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K37" s="9" t="str">
+        <f t="array" ref="K37">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L37" s="12" t="str">
+        <f t="array" ref="L37">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>7.4210000000000003</v>
       </c>
@@ -4135,35 +4282,39 @@
         <v>+II</v>
       </c>
       <c r="E38" s="8" t="str">
-        <f t="array" ref="E38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F38" s="9" t="str">
-        <f t="array" ref="F38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F38" s="8" t="str">
+        <f t="array" ref="F38">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B38,C38),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="array" ref="G38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H38" s="9" t="str">
-        <f t="array" ref="H38">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B38,C38),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I38" s="9" t="str">
-        <f t="array" ref="I38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I38">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B38,C38),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="array" ref="J38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K38" s="12" t="str">
-        <f t="array" ref="K38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K38" s="9" t="str">
+        <f t="array" ref="K38">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L38" s="12" t="str">
+        <f t="array" ref="L38">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>7.6280000000000001</v>
       </c>
@@ -4175,35 +4326,39 @@
         <v>+II</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f t="array" ref="E39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F39" s="9" t="str">
-        <f t="array" ref="F39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F39" s="8" t="str">
+        <f t="array" ref="F39">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B39,C39),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G39" s="9" t="str">
-        <f t="array" ref="G39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H39" s="9" t="str">
-        <f t="array" ref="H39">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B39,C39),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I39" s="9" t="str">
-        <f t="array" ref="I39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I39">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B39,C39),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="array" ref="J39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K39" s="12" t="str">
-        <f t="array" ref="K39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <f t="array" ref="K39">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L39" s="12" t="str">
+        <f t="array" ref="L39">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>7.8339999999999996</v>
       </c>
@@ -4215,35 +4370,39 @@
         <v>+II</v>
       </c>
       <c r="E40" s="8" t="str">
-        <f t="array" ref="E40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F40" s="9" t="str">
-        <f t="array" ref="F40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f t="array" ref="F40">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B40,C40),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G40" s="9" t="str">
-        <f t="array" ref="G40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H40" s="9" t="str">
-        <f t="array" ref="H40">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B40,C40),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I40" s="9" t="str">
-        <f t="array" ref="I40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I40">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B40,C40),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f t="array" ref="J40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K40" s="12" t="str">
-        <f t="array" ref="K40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K40" s="9" t="str">
+        <f t="array" ref="K40">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L40" s="12" t="str">
+        <f t="array" ref="L40">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>8.032</v>
       </c>
@@ -4255,35 +4414,39 @@
         <v>+II</v>
       </c>
       <c r="E41" s="8" t="str">
-        <f t="array" ref="E41">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B41,C41),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F41" s="9" t="str">
-        <f t="array" ref="F41">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B41,C41),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F41" s="8" t="str">
+        <f t="array" ref="F41">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B41,C41),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G41" s="9" t="str">
-        <f t="array" ref="G41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G41">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B41,C41),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H41" s="9" t="str">
-        <f t="array" ref="H41">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B41,C41),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I41" s="9" t="str">
-        <f t="array" ref="I41">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I41">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B41,C41),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J41" s="9" t="str">
-        <f t="array" ref="J41">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K41" s="12" t="str">
-        <f t="array" ref="K41">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J41">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K41" s="9" t="str">
+        <f t="array" ref="K41">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L41" s="12" t="str">
+        <f t="array" ref="L41">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>8.2260000000000009</v>
       </c>
@@ -4295,35 +4458,39 @@
         <v>+II</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f t="array" ref="E42">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B42,C42),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F42" s="9" t="str">
-        <f t="array" ref="F42">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B42,C42),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F42" s="8" t="str">
+        <f t="array" ref="F42">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B42,C42),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G42" s="9" t="str">
-        <f t="array" ref="G42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G42">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B42,C42),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H42" s="9" t="str">
-        <f t="array" ref="H42">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B42,C42),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I42" s="9" t="str">
-        <f t="array" ref="I42">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I42">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B42,C42),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J42" s="9" t="str">
-        <f t="array" ref="J42">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K42" s="12" t="str">
-        <f t="array" ref="K42">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J42">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K42" s="9" t="str">
+        <f t="array" ref="K42">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L42" s="12" t="str">
+        <f t="array" ref="L42">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>8.4260000000000002</v>
       </c>
@@ -4335,35 +4502,39 @@
         <v>+II</v>
       </c>
       <c r="E43" s="8" t="str">
-        <f t="array" ref="E43">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B43,C43),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F43" s="9" t="str">
-        <f t="array" ref="F43">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B43,C43),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F43" s="8" t="str">
+        <f t="array" ref="F43">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B43,C43),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G43" s="9" t="str">
-        <f t="array" ref="G43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G43">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B43,C43),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H43" s="9" t="str">
-        <f t="array" ref="H43">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B43,C43),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I43" s="9" t="str">
-        <f t="array" ref="I43">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I43">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B43,C43),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J43" s="9" t="str">
-        <f t="array" ref="J43">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K43" s="12" t="str">
-        <f t="array" ref="K43">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J43">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K43" s="9" t="str">
+        <f t="array" ref="K43">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L43" s="12" t="str">
+        <f t="array" ref="L43">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>8.6270000000000007</v>
       </c>
@@ -4375,35 +4546,39 @@
         <v>+II</v>
       </c>
       <c r="E44" s="8" t="str">
-        <f t="array" ref="E44">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B44,C44),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F44" s="9" t="str">
-        <f t="array" ref="F44">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B44,C44),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F44" s="8" t="str">
+        <f t="array" ref="F44">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B44,C44),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G44" s="9" t="str">
-        <f t="array" ref="G44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G44">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B44,C44),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H44" s="9" t="str">
-        <f t="array" ref="H44">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B44,C44),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I44" s="9" t="str">
-        <f t="array" ref="I44">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I44">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B44,C44),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J44" s="9" t="str">
-        <f t="array" ref="J44">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K44" s="12" t="str">
-        <f t="array" ref="K44">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J44">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K44" s="9" t="str">
+        <f t="array" ref="K44">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L44" s="12" t="str">
+        <f t="array" ref="L44">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>8.8070000000000004</v>
       </c>
@@ -4415,35 +4590,39 @@
         <v>+II</v>
       </c>
       <c r="E45" s="8" t="str">
-        <f t="array" ref="E45">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B45,C45),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F45" s="9" t="str">
-        <f t="array" ref="F45">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B45,C45),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F45" s="8" t="str">
+        <f t="array" ref="F45">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B45,C45),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G45" s="9" t="str">
-        <f t="array" ref="G45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G45">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B45,C45),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H45" s="9" t="str">
-        <f t="array" ref="H45">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B45,C45),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I45" s="9" t="str">
-        <f t="array" ref="I45">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I45">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B45,C45),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J45" s="9" t="str">
-        <f t="array" ref="J45">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K45" s="12" t="str">
-        <f t="array" ref="K45">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J45">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K45" s="9" t="str">
+        <f t="array" ref="K45">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L45" s="12" t="str">
+        <f t="array" ref="L45">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <v>8.9670000000000005</v>
       </c>
@@ -4455,35 +4634,39 @@
         <v>+II</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f t="array" ref="E46">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B46,C46),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F46" s="9" t="str">
-        <f t="array" ref="F46">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B46,C46),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F46" s="8" t="str">
+        <f t="array" ref="F46">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B46,C46),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G46" s="9" t="str">
-        <f t="array" ref="G46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G46">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B46,C46),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H46" s="9" t="str">
-        <f t="array" ref="H46">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B46,C46),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I46" s="9" t="str">
-        <f t="array" ref="I46">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I46">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B46,C46),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J46" s="9" t="str">
-        <f t="array" ref="J46">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K46" s="12" t="str">
-        <f t="array" ref="K46">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J46">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K46" s="9" t="str">
+        <f t="array" ref="K46">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L46" s="12" t="str">
+        <f t="array" ref="L46">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>9.1289999999999996</v>
       </c>
@@ -4495,35 +4678,39 @@
         <v>+II</v>
       </c>
       <c r="E47" s="8" t="str">
-        <f t="array" ref="E47">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B47,C47),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F47" s="9" t="str">
-        <f t="array" ref="F47">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B47,C47),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F47" s="8" t="str">
+        <f t="array" ref="F47">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B47,C47),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G47" s="9" t="str">
-        <f t="array" ref="G47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G47">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B47,C47),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H47" s="9" t="str">
-        <f t="array" ref="H47">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B47,C47),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I47" s="9" t="str">
-        <f t="array" ref="I47">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I47">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B47,C47),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J47" s="9" t="str">
-        <f t="array" ref="J47">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K47" s="12" t="str">
-        <f t="array" ref="K47">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J47">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K47" s="9" t="str">
+        <f t="array" ref="K47">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L47" s="12" t="str">
+        <f t="array" ref="L47">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <v>9.2859999999999996</v>
       </c>
@@ -4535,35 +4722,39 @@
         <v>+II</v>
       </c>
       <c r="E48" s="8" t="str">
-        <f t="array" ref="E48">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B48,C48),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F48" s="9" t="str">
-        <f t="array" ref="F48">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B48,C48),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F48" s="8" t="str">
+        <f t="array" ref="F48">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B48,C48),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G48" s="9" t="str">
-        <f t="array" ref="G48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G48">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B48,C48),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H48" s="9" t="str">
-        <f t="array" ref="H48">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B48,C48),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I48" s="9" t="str">
-        <f t="array" ref="I48">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I48">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B48,C48),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J48" s="9" t="str">
-        <f t="array" ref="J48">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K48" s="12" t="str">
-        <f t="array" ref="K48">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J48">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K48" s="9" t="str">
+        <f t="array" ref="K48">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L48" s="12" t="str">
+        <f t="array" ref="L48">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>9.4410000000000007</v>
       </c>
@@ -4575,35 +4766,39 @@
         <v>+II</v>
       </c>
       <c r="E49" s="8" t="str">
-        <f t="array" ref="E49">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B49,C49),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F49" s="9" t="str">
-        <f t="array" ref="F49">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B49,C49),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F49" s="8" t="str">
+        <f t="array" ref="F49">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B49,C49),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G49" s="9" t="str">
-        <f t="array" ref="G49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G49">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B49,C49),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H49" s="9" t="str">
-        <f t="array" ref="H49">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B49,C49),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I49" s="9" t="str">
-        <f t="array" ref="I49">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I49">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B49,C49),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J49" s="9" t="str">
-        <f t="array" ref="J49">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K49" s="12" t="str">
-        <f t="array" ref="K49">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J49">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K49" s="9" t="str">
+        <f t="array" ref="K49">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L49" s="12" t="str">
+        <f t="array" ref="L49">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>9.5960000000000001</v>
       </c>
@@ -4615,35 +4810,39 @@
         <v>+II</v>
       </c>
       <c r="E50" s="8" t="str">
-        <f t="array" ref="E50">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B50,C50),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F50" s="9" t="str">
-        <f t="array" ref="F50">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B50,C50),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F50" s="8" t="str">
+        <f t="array" ref="F50">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B50,C50),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G50" s="9" t="str">
-        <f t="array" ref="G50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G50">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B50,C50),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H50" s="9" t="str">
-        <f t="array" ref="H50">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B50,C50),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I50" s="9" t="str">
-        <f t="array" ref="I50">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I50">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B50,C50),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J50" s="9" t="str">
-        <f t="array" ref="J50">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K50" s="12" t="str">
-        <f t="array" ref="K50">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J50">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K50" s="9" t="str">
+        <f t="array" ref="K50">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L50" s="12" t="str">
+        <f t="array" ref="L50">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>9.7509999999999994</v>
       </c>
@@ -4655,35 +4854,39 @@
         <v>+II</v>
       </c>
       <c r="E51" s="8" t="str">
-        <f t="array" ref="E51">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B51,C51),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F51" s="9" t="str">
-        <f t="array" ref="F51">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B51,C51),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F51" s="8" t="str">
+        <f t="array" ref="F51">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B51,C51),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G51" s="9" t="str">
-        <f t="array" ref="G51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G51">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B51,C51),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H51" s="9" t="str">
-        <f t="array" ref="H51">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B51,C51),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I51" s="9" t="str">
-        <f t="array" ref="I51">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I51">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B51,C51),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J51" s="9" t="str">
-        <f t="array" ref="J51">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K51" s="12" t="str">
-        <f t="array" ref="K51">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J51">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K51" s="9" t="str">
+        <f t="array" ref="K51">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L51" s="12" t="str">
+        <f t="array" ref="L51">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>9.9060000000000006</v>
       </c>
@@ -4695,35 +4898,39 @@
         <v>+II</v>
       </c>
       <c r="E52" s="8" t="str">
-        <f t="array" ref="E52">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B52,C52),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F52" s="9" t="str">
-        <f t="array" ref="F52">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B52,C52),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F52" s="8" t="str">
+        <f t="array" ref="F52">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B52,C52),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G52" s="9" t="str">
-        <f t="array" ref="G52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G52">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B52,C52),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H52" s="9" t="str">
-        <f t="array" ref="H52">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B52,C52),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I52" s="9" t="str">
-        <f t="array" ref="I52">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I52">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B52,C52),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J52" s="9" t="str">
-        <f t="array" ref="J52">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K52" s="12" t="str">
-        <f t="array" ref="K52">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J52">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K52" s="9" t="str">
+        <f t="array" ref="K52">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L52" s="12" t="str">
+        <f t="array" ref="L52">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <v>10.057</v>
       </c>
@@ -4735,35 +4942,39 @@
         <v>+II</v>
       </c>
       <c r="E53" s="8" t="str">
-        <f t="array" ref="E53">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B53,C53),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F53" s="9" t="str">
-        <f t="array" ref="F53">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B53,C53),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F53" s="8" t="str">
+        <f t="array" ref="F53">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B53,C53),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G53" s="9" t="str">
-        <f t="array" ref="G53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G53">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B53,C53),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H53" s="9" t="str">
-        <f t="array" ref="H53">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B53,C53),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I53" s="9" t="str">
-        <f t="array" ref="I53">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I53">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B53,C53),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J53" s="9" t="str">
-        <f t="array" ref="J53">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K53" s="12" t="str">
-        <f t="array" ref="K53">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J53">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K53" s="9" t="str">
+        <f t="array" ref="K53">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L53" s="12" t="str">
+        <f t="array" ref="L53">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <v>10.206</v>
       </c>
@@ -4775,35 +4986,39 @@
         <v>+II</v>
       </c>
       <c r="E54" s="8" t="str">
-        <f t="array" ref="E54">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B54,C54),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F54" s="9" t="str">
-        <f t="array" ref="F54">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B54,C54),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F54" s="8" t="str">
+        <f t="array" ref="F54">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B54,C54),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G54" s="9" t="str">
-        <f t="array" ref="G54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G54">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B54,C54),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H54" s="9" t="str">
-        <f t="array" ref="H54">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B54,C54),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I54" s="9" t="str">
-        <f t="array" ref="I54">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I54">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B54,C54),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J54" s="9" t="str">
-        <f t="array" ref="J54">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K54" s="12" t="str">
-        <f t="array" ref="K54">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J54">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K54" s="9" t="str">
+        <f t="array" ref="K54">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L54" s="12" t="str">
+        <f t="array" ref="L54">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>10.351000000000001</v>
       </c>
@@ -4815,35 +5030,39 @@
         <v>+II</v>
       </c>
       <c r="E55" s="8" t="str">
-        <f t="array" ref="E55">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B55,C55),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F55" s="9" t="str">
-        <f t="array" ref="F55">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B55,C55),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F55" s="8" t="str">
+        <f t="array" ref="F55">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B55,C55),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G55" s="9" t="str">
-        <f t="array" ref="G55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G55">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B55,C55),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H55" s="9" t="str">
-        <f t="array" ref="H55">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B55,C55),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I55" s="9" t="str">
-        <f t="array" ref="I55">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I55">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B55,C55),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J55" s="9" t="str">
-        <f t="array" ref="J55">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K55" s="12" t="str">
-        <f t="array" ref="K55">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J55">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K55" s="9" t="str">
+        <f t="array" ref="K55">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L55" s="12" t="str">
+        <f t="array" ref="L55">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>10.496</v>
       </c>
@@ -4855,35 +5074,39 @@
         <v>+II</v>
       </c>
       <c r="E56" s="8" t="str">
-        <f t="array" ref="E56">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B56,C56),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F56" s="9" t="str">
-        <f t="array" ref="F56">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B56,C56),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F56" s="8" t="str">
+        <f t="array" ref="F56">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B56,C56),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G56" s="9" t="str">
-        <f t="array" ref="G56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G56">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B56,C56),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H56" s="9" t="str">
-        <f t="array" ref="H56">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B56,C56),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I56" s="9" t="str">
-        <f t="array" ref="I56">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I56">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B56,C56),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J56" s="9" t="str">
-        <f t="array" ref="J56">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K56" s="12" t="str">
-        <f t="array" ref="K56">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J56">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K56" s="9" t="str">
+        <f t="array" ref="K56">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L56" s="12" t="str">
+        <f t="array" ref="L56">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>10.646000000000001</v>
       </c>
@@ -4895,35 +5118,39 @@
         <v>+II</v>
       </c>
       <c r="E57" s="8" t="str">
-        <f t="array" ref="E57">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B57,C57),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F57" s="9" t="str">
-        <f t="array" ref="F57">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B57,C57),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F57" s="8" t="str">
+        <f t="array" ref="F57">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B57,C57),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G57" s="9" t="str">
-        <f t="array" ref="G57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G57">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B57,C57),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H57" s="9" t="str">
-        <f t="array" ref="H57">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B57,C57),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I57" s="9" t="str">
-        <f t="array" ref="I57">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I57">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B57,C57),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J57" s="9" t="str">
-        <f t="array" ref="J57">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K57" s="12" t="str">
-        <f t="array" ref="K57">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J57">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K57" s="9" t="str">
+        <f t="array" ref="K57">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L57" s="12" t="str">
+        <f t="array" ref="L57">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <v>10.795999999999999</v>
       </c>
@@ -4935,35 +5162,39 @@
         <v>+II</v>
       </c>
       <c r="E58" s="8" t="str">
-        <f t="array" ref="E58">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B58,C58),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F58" s="9" t="str">
-        <f t="array" ref="F58">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B58,C58),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F58" s="8" t="str">
+        <f t="array" ref="F58">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B58,C58),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G58" s="9" t="str">
-        <f t="array" ref="G58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G58">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B58,C58),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H58" s="9" t="str">
-        <f t="array" ref="H58">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B58,C58),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I58" s="9" t="str">
-        <f t="array" ref="I58">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I58">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B58,C58),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J58" s="9" t="str">
-        <f t="array" ref="J58">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K58" s="12" t="str">
-        <f t="array" ref="K58">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J58">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K58" s="9" t="str">
+        <f t="array" ref="K58">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L58" s="12" t="str">
+        <f t="array" ref="L58">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <v>10.946999999999999</v>
       </c>
@@ -4975,35 +5206,39 @@
         <v>+II</v>
       </c>
       <c r="E59" s="8" t="str">
-        <f t="array" ref="E59">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B59,C59),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F59" s="9" t="str">
-        <f t="array" ref="F59">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B59,C59),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F59" s="8" t="str">
+        <f t="array" ref="F59">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B59,C59),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G59" s="9" t="str">
-        <f t="array" ref="G59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G59">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B59,C59),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H59" s="9" t="str">
-        <f t="array" ref="H59">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B59,C59),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I59" s="9" t="str">
-        <f t="array" ref="I59">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I59">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B59,C59),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J59" s="9" t="str">
-        <f t="array" ref="J59">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K59" s="12" t="str">
-        <f t="array" ref="K59">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J59">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K59" s="9" t="str">
+        <f t="array" ref="K59">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L59" s="12" t="str">
+        <f t="array" ref="L59">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="8">
         <v>11.101000000000001</v>
       </c>
@@ -5015,35 +5250,39 @@
         <v>+II</v>
       </c>
       <c r="E60" s="8" t="str">
-        <f t="array" ref="E60">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B60,C60),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F60" s="9" t="str">
-        <f t="array" ref="F60">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B60,C60),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F60" s="8" t="str">
+        <f t="array" ref="F60">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B60,C60),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G60" s="9" t="str">
-        <f t="array" ref="G60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G60">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B60,C60),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H60" s="9" t="str">
-        <f t="array" ref="H60">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B60,C60),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I60" s="9" t="str">
-        <f t="array" ref="I60">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I60">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B60,C60),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J60" s="9" t="str">
-        <f t="array" ref="J60">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K60" s="12" t="str">
-        <f t="array" ref="K60">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J60">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K60" s="9" t="str">
+        <f t="array" ref="K60">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L60" s="12" t="str">
+        <f t="array" ref="L60">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
         <v>11.256</v>
       </c>
@@ -5055,35 +5294,39 @@
         <v>+II</v>
       </c>
       <c r="E61" s="8" t="str">
-        <f t="array" ref="E61">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B61,C61),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F61" s="9" t="str">
-        <f t="array" ref="F61">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B61,C61),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F61" s="8" t="str">
+        <f t="array" ref="F61">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B61,C61),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G61" s="9" t="str">
-        <f t="array" ref="G61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G61">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B61,C61),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H61" s="9" t="str">
-        <f t="array" ref="H61">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B61,C61),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I61" s="9" t="str">
-        <f t="array" ref="I61">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I61">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B61,C61),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J61" s="9" t="str">
-        <f t="array" ref="J61">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K61" s="12" t="str">
-        <f t="array" ref="K61">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J61">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K61" s="9" t="str">
+        <f t="array" ref="K61">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L61" s="12" t="str">
+        <f t="array" ref="L61">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>11.406000000000001</v>
       </c>
@@ -5095,35 +5338,39 @@
         <v>+II</v>
       </c>
       <c r="E62" s="8" t="str">
-        <f t="array" ref="E62">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B62,C62),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F62" s="9" t="str">
-        <f t="array" ref="F62">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B62,C62),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F62" s="8" t="str">
+        <f t="array" ref="F62">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B62,C62),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G62" s="9" t="str">
-        <f t="array" ref="G62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G62">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B62,C62),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H62" s="9" t="str">
-        <f t="array" ref="H62">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B62,C62),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I62" s="9" t="str">
-        <f t="array" ref="I62">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I62">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B62,C62),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J62" s="9" t="str">
-        <f t="array" ref="J62">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K62" s="12" t="str">
-        <f t="array" ref="K62">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J62">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K62" s="9" t="str">
+        <f t="array" ref="K62">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L62" s="12" t="str">
+        <f t="array" ref="L62">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>11.557</v>
       </c>
@@ -5135,35 +5382,39 @@
         <v>+II</v>
       </c>
       <c r="E63" s="8" t="str">
-        <f t="array" ref="E63">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B63,C63),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F63" s="9" t="str">
-        <f t="array" ref="F63">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B63,C63),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F63" s="8" t="str">
+        <f t="array" ref="F63">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B63,C63),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G63" s="9" t="str">
-        <f t="array" ref="G63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G63">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B63,C63),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H63" s="9" t="str">
-        <f t="array" ref="H63">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B63,C63),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I63" s="9" t="str">
-        <f t="array" ref="I63">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I63">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B63,C63),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J63" s="9" t="str">
-        <f t="array" ref="J63">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K63" s="12" t="str">
-        <f t="array" ref="K63">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J63">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K63" s="9" t="str">
+        <f t="array" ref="K63">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L63" s="12" t="str">
+        <f t="array" ref="L63">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>11.706</v>
       </c>
@@ -5175,35 +5426,39 @@
         <v>+II</v>
       </c>
       <c r="E64" s="8" t="str">
-        <f t="array" ref="E64">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B64,C64),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F64" s="9" t="str">
-        <f t="array" ref="F64">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B64,C64),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F64" s="8" t="str">
+        <f t="array" ref="F64">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B64,C64),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G64" s="9" t="str">
-        <f t="array" ref="G64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G64">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B64,C64),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H64" s="9" t="str">
-        <f t="array" ref="H64">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B64,C64),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I64" s="9" t="str">
-        <f t="array" ref="I64">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I64">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B64,C64),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J64" s="9" t="str">
-        <f t="array" ref="J64">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K64" s="12" t="str">
-        <f t="array" ref="K64">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J64">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K64" s="9" t="str">
+        <f t="array" ref="K64">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L64" s="12" t="str">
+        <f t="array" ref="L64">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>11.856</v>
       </c>
@@ -5215,35 +5470,39 @@
         <v>+II</v>
       </c>
       <c r="E65" s="8" t="str">
-        <f t="array" ref="E65">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B65,C65),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F65" s="9" t="str">
-        <f t="array" ref="F65">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B65,C65),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F65" s="8" t="str">
+        <f t="array" ref="F65">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B65,C65),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G65" s="9" t="str">
-        <f t="array" ref="G65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G65">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B65,C65),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H65" s="9" t="str">
-        <f t="array" ref="H65">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B65,C65),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I65" s="9" t="str">
-        <f t="array" ref="I65">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I65">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B65,C65),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J65" s="9" t="str">
-        <f t="array" ref="J65">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K65" s="12" t="str">
-        <f t="array" ref="K65">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J65">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f t="array" ref="K65">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L65" s="12" t="str">
+        <f t="array" ref="L65">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <v>12.007</v>
       </c>
@@ -5255,35 +5514,39 @@
         <v>+II</v>
       </c>
       <c r="E66" s="8" t="str">
-        <f t="array" ref="E66">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B66,C66),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F66" s="9" t="str">
-        <f t="array" ref="F66">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B66,C66),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="F66" s="8" t="str">
+        <f t="array" ref="F66">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B66,C66),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G66" s="9" t="str">
-        <f t="array" ref="G66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G66">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B66,C66),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H66" s="9" t="str">
-        <f t="array" ref="H66">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B66,C66),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I66" s="9" t="str">
-        <f t="array" ref="I66">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I66">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B66,C66),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J66" s="9" t="str">
-        <f t="array" ref="J66">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K66" s="12" t="str">
-        <f t="array" ref="K66">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J66">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K66" s="9" t="str">
+        <f t="array" ref="K66">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L66" s="12" t="str">
+        <f t="array" ref="L66">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8">
         <v>12.167</v>
       </c>
@@ -5291,39 +5554,43 @@
         <v>12.351000000000001</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f t="shared" ref="D67:D106" si="1">IF(COUNTIF(E67:K67,"D")&gt;0,"D",IF(COUNTIF(E67:K67,"-III")&gt;0,"-III",IF(COUNTIF(E67:K67,"-II")&gt;0,"-II",IF(COUNTIF(E67:K67,"-I")&gt;0,"-I",IF(COUNTIF(E67:K67,"+0")&gt;0,"+0",IF(COUNTIF(E67:K67,"+I")&gt;0,"+I",IF(COUNTIF(E67:K67,"+II")&gt;0,"+II",IF(COUNTIF(E67:K67,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f t="shared" ref="D67:D106" si="2">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND"))))))))</f>
         <v>+II</v>
       </c>
       <c r="E67" s="8" t="str">
-        <f t="array" ref="E67">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B67,C67),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F67" s="9" t="str">
-        <f t="array" ref="F67">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B67,C67),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" ref="E67:E106" si="3">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND")))))))</f>
+        <v>+II</v>
+      </c>
+      <c r="F67" s="8" t="str">
+        <f t="array" ref="F67">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B67,C67),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G67" s="9" t="str">
-        <f t="array" ref="G67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G67">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B67,C67),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H67" s="9" t="str">
-        <f t="array" ref="H67">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B67,C67),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I67" s="9" t="str">
-        <f t="array" ref="I67">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I67">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B67,C67),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J67" s="9" t="str">
-        <f t="array" ref="J67">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K67" s="12" t="str">
-        <f t="array" ref="K67">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J67">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K67" s="9" t="str">
+        <f t="array" ref="K67">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L67" s="12" t="str">
+        <f t="array" ref="L67">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8">
         <v>12.351000000000001</v>
       </c>
@@ -5331,39 +5598,43 @@
         <v>12.555</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E68" s="8" t="str">
-        <f t="array" ref="E68">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B68,C68),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F68" s="9" t="str">
-        <f t="array" ref="F68">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B68,C68),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F68" s="8" t="str">
+        <f t="array" ref="F68">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B68,C68),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G68" s="9" t="str">
-        <f t="array" ref="G68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G68">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B68,C68),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H68" s="9" t="str">
-        <f t="array" ref="H68">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B68,C68),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I68" s="9" t="str">
-        <f t="array" ref="I68">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I68">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B68,C68),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J68" s="9" t="str">
-        <f t="array" ref="J68">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K68" s="12" t="str">
-        <f t="array" ref="K68">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J68">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K68" s="9" t="str">
+        <f t="array" ref="K68">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L68" s="12" t="str">
+        <f t="array" ref="L68">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8">
         <v>12.555</v>
       </c>
@@ -5371,39 +5642,43 @@
         <v>12.763</v>
       </c>
       <c r="D69" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E69" s="8" t="str">
-        <f t="array" ref="E69">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B69,C69),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F69" s="9" t="str">
-        <f t="array" ref="F69">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B69,C69),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F69" s="8" t="str">
+        <f t="array" ref="F69">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B69,C69),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G69" s="9" t="str">
-        <f t="array" ref="G69">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B69,C69),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G69">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B69,C69),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H69" s="9" t="str">
-        <f t="array" ref="H69">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B69,C69),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H69">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B69,C69),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I69" s="9" t="str">
-        <f t="array" ref="I69">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B69,C69),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I69">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B69,C69),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J69" s="9" t="str">
-        <f t="array" ref="J69">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B69,C69),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K69" s="12" t="str">
-        <f t="array" ref="K69">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B69,C69),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J69">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B69,C69),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K69" s="9" t="str">
+        <f t="array" ref="K69">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B69,C69),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L69" s="12" t="str">
+        <f t="array" ref="L69">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B69,C69),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="8">
         <v>12.763</v>
       </c>
@@ -5411,39 +5686,43 @@
         <v>12.968999999999999</v>
       </c>
       <c r="D70" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E70" s="8" t="str">
-        <f t="array" ref="E70">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B70,C70),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F70" s="9" t="str">
-        <f t="array" ref="F70">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B70,C70),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F70" s="8" t="str">
+        <f t="array" ref="F70">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B70,C70),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G70" s="9" t="str">
-        <f t="array" ref="G70">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B70,C70),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G70">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B70,C70),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H70" s="9" t="str">
-        <f t="array" ref="H70">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B70,C70),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H70">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B70,C70),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I70" s="9" t="str">
-        <f t="array" ref="I70">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B70,C70),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I70">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B70,C70),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J70" s="9" t="str">
-        <f t="array" ref="J70">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B70,C70),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K70" s="12" t="str">
-        <f t="array" ref="K70">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B70,C70),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J70">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B70,C70),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K70" s="9" t="str">
+        <f t="array" ref="K70">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B70,C70),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L70" s="12" t="str">
+        <f t="array" ref="L70">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B70,C70),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="8">
         <v>12.968999999999999</v>
       </c>
@@ -5451,39 +5730,43 @@
         <v>13.172000000000001</v>
       </c>
       <c r="D71" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E71" s="8" t="str">
-        <f t="array" ref="E71">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B71,C71),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F71" s="9" t="str">
-        <f t="array" ref="F71">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B71,C71),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F71" s="8" t="str">
+        <f t="array" ref="F71">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B71,C71),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G71" s="9" t="str">
-        <f t="array" ref="G71">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B71,C71),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G71">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B71,C71),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H71" s="9" t="str">
-        <f t="array" ref="H71">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B71,C71),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H71">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B71,C71),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I71" s="9" t="str">
-        <f t="array" ref="I71">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B71,C71),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I71">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B71,C71),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J71" s="9" t="str">
-        <f t="array" ref="J71">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B71,C71),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K71" s="12" t="str">
-        <f t="array" ref="K71">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B71,C71),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J71">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B71,C71),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K71" s="9" t="str">
+        <f t="array" ref="K71">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B71,C71),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L71" s="12" t="str">
+        <f t="array" ref="L71">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B71,C71),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="8">
         <v>13.172000000000001</v>
       </c>
@@ -5491,39 +5774,43 @@
         <v>13.377000000000001</v>
       </c>
       <c r="D72" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E72" s="8" t="str">
-        <f t="array" ref="E72">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B72,C72),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F72" s="9" t="str">
-        <f t="array" ref="F72">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B72,C72),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F72" s="8" t="str">
+        <f t="array" ref="F72">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B72,C72),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G72" s="9" t="str">
-        <f t="array" ref="G72">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B72,C72),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G72">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B72,C72),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H72" s="9" t="str">
-        <f t="array" ref="H72">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B72,C72),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H72">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B72,C72),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I72" s="9" t="str">
-        <f t="array" ref="I72">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B72,C72),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I72">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B72,C72),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J72" s="9" t="str">
-        <f t="array" ref="J72">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B72,C72),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K72" s="12" t="str">
-        <f t="array" ref="K72">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B72,C72),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J72">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B72,C72),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K72" s="9" t="str">
+        <f t="array" ref="K72">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B72,C72),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L72" s="12" t="str">
+        <f t="array" ref="L72">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B72,C72),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8">
         <v>13.377000000000001</v>
       </c>
@@ -5531,39 +5818,43 @@
         <v>13.582000000000001</v>
       </c>
       <c r="D73" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E73" s="8" t="str">
-        <f t="array" ref="E73">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B73,C73),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F73" s="9" t="str">
-        <f t="array" ref="F73">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B73,C73),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F73" s="8" t="str">
+        <f t="array" ref="F73">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B73,C73),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G73" s="9" t="str">
-        <f t="array" ref="G73">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B73,C73),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G73">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B73,C73),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H73" s="9" t="str">
-        <f t="array" ref="H73">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B73,C73),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H73">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B73,C73),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I73" s="9" t="str">
-        <f t="array" ref="I73">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B73,C73),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I73">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B73,C73),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J73" s="9" t="str">
-        <f t="array" ref="J73">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B73,C73),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K73" s="12" t="str">
-        <f t="array" ref="K73">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B73,C73),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J73">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B73,C73),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K73" s="9" t="str">
+        <f t="array" ref="K73">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B73,C73),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L73" s="12" t="str">
+        <f t="array" ref="L73">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B73,C73),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8">
         <v>13.582000000000001</v>
       </c>
@@ -5571,39 +5862,43 @@
         <v>13.786</v>
       </c>
       <c r="D74" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E74" s="8" t="str">
-        <f t="array" ref="E74">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B74,C74),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F74" s="9" t="str">
-        <f t="array" ref="F74">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B74,C74),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F74" s="8" t="str">
+        <f t="array" ref="F74">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B74,C74),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G74" s="9" t="str">
-        <f t="array" ref="G74">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B74,C74),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G74">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B74,C74),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H74" s="9" t="str">
-        <f t="array" ref="H74">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B74,C74),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H74">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B74,C74),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I74" s="9" t="str">
-        <f t="array" ref="I74">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B74,C74),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I74">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B74,C74),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J74" s="9" t="str">
-        <f t="array" ref="J74">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B74,C74),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K74" s="12" t="str">
-        <f t="array" ref="K74">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B74,C74),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J74">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B74,C74),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K74" s="9" t="str">
+        <f t="array" ref="K74">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B74,C74),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L74" s="12" t="str">
+        <f t="array" ref="L74">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B74,C74),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8">
         <v>13.786</v>
       </c>
@@ -5611,39 +5906,43 @@
         <v>13.989000000000001</v>
       </c>
       <c r="D75" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E75" s="8" t="str">
-        <f t="array" ref="E75">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B75,C75),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F75" s="9" t="str">
-        <f t="array" ref="F75">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B75,C75),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F75" s="8" t="str">
+        <f t="array" ref="F75">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B75,C75),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G75" s="9" t="str">
-        <f t="array" ref="G75">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B75,C75),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G75">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B75,C75),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H75" s="9" t="str">
-        <f t="array" ref="H75">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B75,C75),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H75">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B75,C75),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I75" s="9" t="str">
-        <f t="array" ref="I75">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B75,C75),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I75">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B75,C75),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J75" s="9" t="str">
-        <f t="array" ref="J75">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B75,C75),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K75" s="12" t="str">
-        <f t="array" ref="K75">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B75,C75),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J75">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B75,C75),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K75" s="9" t="str">
+        <f t="array" ref="K75">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B75,C75),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L75" s="12" t="str">
+        <f t="array" ref="L75">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B75,C75),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="8">
         <v>13.989000000000001</v>
       </c>
@@ -5651,39 +5950,43 @@
         <v>14.193</v>
       </c>
       <c r="D76" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E76" s="8" t="str">
-        <f t="array" ref="E76">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B76,C76),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F76" s="9" t="str">
-        <f t="array" ref="F76">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B76,C76),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F76" s="8" t="str">
+        <f t="array" ref="F76">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B76,C76),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G76" s="9" t="str">
-        <f t="array" ref="G76">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B76,C76),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G76">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B76,C76),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H76" s="9" t="str">
-        <f t="array" ref="H76">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B76,C76),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H76">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B76,C76),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I76" s="9" t="str">
-        <f t="array" ref="I76">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B76,C76),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I76">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B76,C76),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J76" s="9" t="str">
-        <f t="array" ref="J76">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B76,C76),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K76" s="12" t="str">
-        <f t="array" ref="K76">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B76,C76),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J76">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B76,C76),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K76" s="9" t="str">
+        <f t="array" ref="K76">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B76,C76),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L76" s="12" t="str">
+        <f t="array" ref="L76">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B76,C76),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <v>14.193</v>
       </c>
@@ -5691,39 +5994,43 @@
         <v>14.401</v>
       </c>
       <c r="D77" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E77" s="8" t="str">
-        <f t="array" ref="E77">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B77,C77),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F77" s="9" t="str">
-        <f t="array" ref="F77">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B77,C77),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F77" s="8" t="str">
+        <f t="array" ref="F77">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B77,C77),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G77" s="9" t="str">
-        <f t="array" ref="G77">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B77,C77),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G77">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B77,C77),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H77" s="9" t="str">
-        <f t="array" ref="H77">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B77,C77),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H77">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B77,C77),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I77" s="9" t="str">
-        <f t="array" ref="I77">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B77,C77),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I77">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B77,C77),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J77" s="9" t="str">
-        <f t="array" ref="J77">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B77,C77),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K77" s="12" t="str">
-        <f t="array" ref="K77">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B77,C77),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J77">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B77,C77),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K77" s="9" t="str">
+        <f t="array" ref="K77">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B77,C77),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L77" s="12" t="str">
+        <f t="array" ref="L77">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B77,C77),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>14.401</v>
       </c>
@@ -5731,39 +6038,43 @@
         <v>14.606999999999999</v>
       </c>
       <c r="D78" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E78" s="8" t="str">
-        <f t="array" ref="E78">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B78,C78),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F78" s="9" t="str">
-        <f t="array" ref="F78">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B78,C78),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F78" s="8" t="str">
+        <f t="array" ref="F78">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B78,C78),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G78" s="9" t="str">
-        <f t="array" ref="G78">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B78,C78),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G78">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B78,C78),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H78" s="9" t="str">
-        <f t="array" ref="H78">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B78,C78),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H78">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B78,C78),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I78" s="9" t="str">
-        <f t="array" ref="I78">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B78,C78),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I78">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B78,C78),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J78" s="9" t="str">
-        <f t="array" ref="J78">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B78,C78),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K78" s="12" t="str">
-        <f t="array" ref="K78">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B78,C78),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J78">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B78,C78),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K78" s="9" t="str">
+        <f t="array" ref="K78">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B78,C78),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L78" s="12" t="str">
+        <f t="array" ref="L78">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B78,C78),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <v>14.606999999999999</v>
       </c>
@@ -5771,39 +6082,43 @@
         <v>14.81</v>
       </c>
       <c r="D79" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E79" s="8" t="str">
-        <f t="array" ref="E79">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B79,C79),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F79" s="9" t="str">
-        <f t="array" ref="F79">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B79,C79),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F79" s="8" t="str">
+        <f t="array" ref="F79">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B79,C79),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G79" s="9" t="str">
-        <f t="array" ref="G79">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B79,C79),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G79">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B79,C79),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H79" s="9" t="str">
-        <f t="array" ref="H79">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B79,C79),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H79">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B79,C79),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I79" s="9" t="str">
-        <f t="array" ref="I79">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B79,C79),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I79">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B79,C79),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J79" s="9" t="str">
-        <f t="array" ref="J79">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B79,C79),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K79" s="12" t="str">
-        <f t="array" ref="K79">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B79,C79),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J79">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B79,C79),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K79" s="9" t="str">
+        <f t="array" ref="K79">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B79,C79),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L79" s="12" t="str">
+        <f t="array" ref="L79">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B79,C79),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>14.81</v>
       </c>
@@ -5811,39 +6126,43 @@
         <v>15.013</v>
       </c>
       <c r="D80" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E80" s="8" t="str">
-        <f t="array" ref="E80">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B80,C80),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F80" s="9" t="str">
-        <f t="array" ref="F80">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B80,C80),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F80" s="8" t="str">
+        <f t="array" ref="F80">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B80,C80),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G80" s="9" t="str">
-        <f t="array" ref="G80">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B80,C80),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G80">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B80,C80),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H80" s="9" t="str">
-        <f t="array" ref="H80">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B80,C80),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H80">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B80,C80),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I80" s="9" t="str">
-        <f t="array" ref="I80">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B80,C80),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I80">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B80,C80),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J80" s="9" t="str">
-        <f t="array" ref="J80">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B80,C80),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K80" s="12" t="str">
-        <f t="array" ref="K80">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B80,C80),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J80">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B80,C80),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K80" s="9" t="str">
+        <f t="array" ref="K80">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B80,C80),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L80" s="12" t="str">
+        <f t="array" ref="L80">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B80,C80),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="8">
         <v>15.013</v>
       </c>
@@ -5851,39 +6170,43 @@
         <v>15.22</v>
       </c>
       <c r="D81" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E81" s="8" t="str">
-        <f t="array" ref="E81">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B81,C81),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F81" s="9" t="str">
-        <f t="array" ref="F81">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B81,C81),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F81" s="8" t="str">
+        <f t="array" ref="F81">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B81,C81),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G81" s="9" t="str">
-        <f t="array" ref="G81">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B81,C81),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G81">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B81,C81),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H81" s="9" t="str">
-        <f t="array" ref="H81">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B81,C81),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H81">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B81,C81),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I81" s="9" t="str">
-        <f t="array" ref="I81">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B81,C81),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I81">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B81,C81),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J81" s="9" t="str">
-        <f t="array" ref="J81">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B81,C81),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K81" s="12" t="str">
-        <f t="array" ref="K81">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B81,C81),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J81">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B81,C81),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K81" s="9" t="str">
+        <f t="array" ref="K81">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B81,C81),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L81" s="12" t="str">
+        <f t="array" ref="L81">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B81,C81),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="8">
         <v>15.22</v>
       </c>
@@ -5891,39 +6214,43 @@
         <v>15.429</v>
       </c>
       <c r="D82" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E82" s="8" t="str">
-        <f t="array" ref="E82">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B82,C82),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F82" s="9" t="str">
-        <f t="array" ref="F82">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B82,C82),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F82" s="8" t="str">
+        <f t="array" ref="F82">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B82,C82),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G82" s="9" t="str">
-        <f t="array" ref="G82">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B82,C82),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G82">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B82,C82),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H82" s="9" t="str">
-        <f t="array" ref="H82">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B82,C82),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H82">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B82,C82),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I82" s="9" t="str">
-        <f t="array" ref="I82">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B82,C82),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I82">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B82,C82),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J82" s="9" t="str">
-        <f t="array" ref="J82">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B82,C82),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K82" s="12" t="str">
-        <f t="array" ref="K82">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B82,C82),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J82">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B82,C82),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K82" s="9" t="str">
+        <f t="array" ref="K82">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B82,C82),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L82" s="12" t="str">
+        <f t="array" ref="L82">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B82,C82),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="8">
         <v>15.429</v>
       </c>
@@ -5931,39 +6258,43 @@
         <v>15.635999999999999</v>
       </c>
       <c r="D83" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E83" s="8" t="str">
-        <f t="array" ref="E83">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B83,C83),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F83" s="9" t="str">
-        <f t="array" ref="F83">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B83,C83),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F83" s="8" t="str">
+        <f t="array" ref="F83">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B83,C83),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G83" s="9" t="str">
-        <f t="array" ref="G83">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B83,C83),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G83">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B83,C83),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H83" s="9" t="str">
-        <f t="array" ref="H83">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B83,C83),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H83">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B83,C83),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I83" s="9" t="str">
-        <f t="array" ref="I83">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B83,C83),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I83">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B83,C83),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J83" s="9" t="str">
-        <f t="array" ref="J83">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B83,C83),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K83" s="12" t="str">
-        <f t="array" ref="K83">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B83,C83),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J83">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B83,C83),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K83" s="9" t="str">
+        <f t="array" ref="K83">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B83,C83),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L83" s="12" t="str">
+        <f t="array" ref="L83">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B83,C83),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="8">
         <v>15.635999999999999</v>
       </c>
@@ -5971,39 +6302,43 @@
         <v>15.843</v>
       </c>
       <c r="D84" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E84" s="8" t="str">
-        <f t="array" ref="E84">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B84,C84),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F84" s="9" t="str">
-        <f t="array" ref="F84">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B84,C84),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F84" s="8" t="str">
+        <f t="array" ref="F84">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B84,C84),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G84" s="9" t="str">
-        <f t="array" ref="G84">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B84,C84),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G84">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B84,C84),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H84" s="9" t="str">
-        <f t="array" ref="H84">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B84,C84),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H84">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B84,C84),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I84" s="9" t="str">
-        <f t="array" ref="I84">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B84,C84),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I84">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B84,C84),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J84" s="9" t="str">
-        <f t="array" ref="J84">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B84,C84),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K84" s="12" t="str">
-        <f t="array" ref="K84">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B84,C84),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J84">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B84,C84),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K84" s="9" t="str">
+        <f t="array" ref="K84">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B84,C84),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L84" s="12" t="str">
+        <f t="array" ref="L84">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B84,C84),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="8">
         <v>15.843</v>
       </c>
@@ -6011,39 +6346,43 @@
         <v>16.048999999999999</v>
       </c>
       <c r="D85" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E85" s="8" t="str">
-        <f t="array" ref="E85">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B85,C85),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F85" s="9" t="str">
-        <f t="array" ref="F85">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B85,C85),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F85" s="8" t="str">
+        <f t="array" ref="F85">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B85,C85),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G85" s="9" t="str">
-        <f t="array" ref="G85">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B85,C85),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G85">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B85,C85),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H85" s="9" t="str">
-        <f t="array" ref="H85">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B85,C85),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H85">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B85,C85),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I85" s="9" t="str">
-        <f t="array" ref="I85">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B85,C85),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I85">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B85,C85),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J85" s="9" t="str">
-        <f t="array" ref="J85">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B85,C85),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K85" s="12" t="str">
-        <f t="array" ref="K85">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B85,C85),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J85">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B85,C85),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K85" s="9" t="str">
+        <f t="array" ref="K85">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B85,C85),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L85" s="12" t="str">
+        <f t="array" ref="L85">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B85,C85),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="8">
         <v>16.048999999999999</v>
       </c>
@@ -6051,39 +6390,43 @@
         <v>16.256</v>
       </c>
       <c r="D86" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E86" s="8" t="str">
-        <f t="array" ref="E86">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B86,C86),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F86" s="9" t="str">
-        <f t="array" ref="F86">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B86,C86),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F86" s="8" t="str">
+        <f t="array" ref="F86">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B86,C86),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G86" s="9" t="str">
-        <f t="array" ref="G86">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B86,C86),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G86">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B86,C86),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H86" s="9" t="str">
-        <f t="array" ref="H86">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B86,C86),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H86">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B86,C86),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I86" s="9" t="str">
-        <f t="array" ref="I86">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B86,C86),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I86">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B86,C86),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J86" s="9" t="str">
-        <f t="array" ref="J86">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B86,C86),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K86" s="12" t="str">
-        <f t="array" ref="K86">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B86,C86),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J86">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B86,C86),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K86" s="9" t="str">
+        <f t="array" ref="K86">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B86,C86),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L86" s="12" t="str">
+        <f t="array" ref="L86">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B86,C86),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
         <v>16.256</v>
       </c>
@@ -6091,39 +6434,43 @@
         <v>16.451000000000001</v>
       </c>
       <c r="D87" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E87" s="8" t="str">
-        <f t="array" ref="E87">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B87,C87),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F87" s="9" t="str">
-        <f t="array" ref="F87">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B87,C87),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F87" s="8" t="str">
+        <f t="array" ref="F87">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B87,C87),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G87" s="9" t="str">
-        <f t="array" ref="G87">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B87,C87),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G87">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B87,C87),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H87" s="9" t="str">
-        <f t="array" ref="H87">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B87,C87),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H87">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B87,C87),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I87" s="9" t="str">
-        <f t="array" ref="I87">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B87,C87),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I87">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B87,C87),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J87" s="9" t="str">
-        <f t="array" ref="J87">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B87,C87),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K87" s="12" t="str">
-        <f t="array" ref="K87">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B87,C87),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J87">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B87,C87),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K87" s="9" t="str">
+        <f t="array" ref="K87">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B87,C87),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L87" s="12" t="str">
+        <f t="array" ref="L87">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B87,C87),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="8">
         <v>16.451000000000001</v>
       </c>
@@ -6131,39 +6478,43 @@
         <v>16.617000000000001</v>
       </c>
       <c r="D88" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E88" s="8" t="str">
-        <f t="array" ref="E88">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B88,C88),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F88" s="9" t="str">
-        <f t="array" ref="F88">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B88,C88),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F88" s="8" t="str">
+        <f t="array" ref="F88">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B88,C88),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G88" s="9" t="str">
-        <f t="array" ref="G88">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B88,C88),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G88">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B88,C88),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H88" s="9" t="str">
-        <f t="array" ref="H88">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B88,C88),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H88">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B88,C88),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I88" s="9" t="str">
-        <f t="array" ref="I88">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B88,C88),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I88">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B88,C88),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J88" s="9" t="str">
-        <f t="array" ref="J88">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B88,C88),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K88" s="12" t="str">
-        <f t="array" ref="K88">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B88,C88),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J88">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B88,C88),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K88" s="9" t="str">
+        <f t="array" ref="K88">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B88,C88),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L88" s="12" t="str">
+        <f t="array" ref="L88">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B88,C88),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="8">
         <v>16.617000000000001</v>
       </c>
@@ -6171,39 +6522,43 @@
         <v>16.760999999999999</v>
       </c>
       <c r="D89" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E89" s="8" t="str">
-        <f t="array" ref="E89">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B89,C89),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F89" s="9" t="str">
-        <f t="array" ref="F89">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B89,C89),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F89" s="8" t="str">
+        <f t="array" ref="F89">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B89,C89),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G89" s="9" t="str">
-        <f t="array" ref="G89">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B89,C89),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G89">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B89,C89),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H89" s="9" t="str">
-        <f t="array" ref="H89">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B89,C89),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H89">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B89,C89),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I89" s="9" t="str">
-        <f t="array" ref="I89">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B89,C89),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I89">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B89,C89),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J89" s="9" t="str">
-        <f t="array" ref="J89">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B89,C89),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K89" s="12" t="str">
-        <f t="array" ref="K89">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B89,C89),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J89">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B89,C89),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K89" s="9" t="str">
+        <f t="array" ref="K89">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B89,C89),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L89" s="12" t="str">
+        <f t="array" ref="L89">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B89,C89),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="8">
         <v>16.760999999999999</v>
       </c>
@@ -6211,39 +6566,43 @@
         <v>16.901</v>
       </c>
       <c r="D90" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E90" s="8" t="str">
-        <f t="array" ref="E90">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B90,C90),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F90" s="9" t="str">
-        <f t="array" ref="F90">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B90,C90),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F90" s="8" t="str">
+        <f t="array" ref="F90">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B90,C90),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G90" s="9" t="str">
-        <f t="array" ref="G90">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B90,C90),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G90">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B90,C90),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H90" s="9" t="str">
-        <f t="array" ref="H90">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B90,C90),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H90">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B90,C90),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I90" s="9" t="str">
-        <f t="array" ref="I90">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B90,C90),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I90">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B90,C90),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J90" s="9" t="str">
-        <f t="array" ref="J90">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B90,C90),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K90" s="12" t="str">
-        <f t="array" ref="K90">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B90,C90),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J90">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B90,C90),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K90" s="9" t="str">
+        <f t="array" ref="K90">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B90,C90),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L90" s="12" t="str">
+        <f t="array" ref="L90">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B90,C90),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="8">
         <v>16.901</v>
       </c>
@@ -6251,39 +6610,43 @@
         <v>17.059999999999999</v>
       </c>
       <c r="D91" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E91" s="8" t="str">
-        <f t="array" ref="E91">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B91,C91),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F91" s="9" t="str">
-        <f t="array" ref="F91">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B91,C91),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F91" s="8" t="str">
+        <f t="array" ref="F91">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B91,C91),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G91" s="9" t="str">
-        <f t="array" ref="G91">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B91,C91),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G91">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B91,C91),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H91" s="9" t="str">
-        <f t="array" ref="H91">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B91,C91),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H91">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B91,C91),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I91" s="9" t="str">
-        <f t="array" ref="I91">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B91,C91),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I91">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B91,C91),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J91" s="9" t="str">
-        <f t="array" ref="J91">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B91,C91),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K91" s="12" t="str">
-        <f t="array" ref="K91">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B91,C91),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J91">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B91,C91),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K91" s="9" t="str">
+        <f t="array" ref="K91">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B91,C91),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L91" s="12" t="str">
+        <f t="array" ref="L91">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B91,C91),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="8">
         <v>17.059999999999999</v>
       </c>
@@ -6291,39 +6654,43 @@
         <v>17.242000000000001</v>
       </c>
       <c r="D92" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E92" s="8" t="str">
-        <f t="array" ref="E92">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B92,C92),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F92" s="9" t="str">
-        <f t="array" ref="F92">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B92,C92),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F92" s="8" t="str">
+        <f t="array" ref="F92">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B92,C92),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G92" s="9" t="str">
-        <f t="array" ref="G92">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B92,C92),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G92">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B92,C92),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H92" s="9" t="str">
-        <f t="array" ref="H92">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B92,C92),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H92">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B92,C92),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I92" s="9" t="str">
-        <f t="array" ref="I92">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B92,C92),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I92">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B92,C92),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J92" s="9" t="str">
-        <f t="array" ref="J92">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B92,C92),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K92" s="12" t="str">
-        <f t="array" ref="K92">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B92,C92),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J92">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B92,C92),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K92" s="9" t="str">
+        <f t="array" ref="K92">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B92,C92),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L92" s="12" t="str">
+        <f t="array" ref="L92">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B92,C92),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="8">
         <v>17.242000000000001</v>
       </c>
@@ -6331,39 +6698,43 @@
         <v>17.422999999999998</v>
       </c>
       <c r="D93" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E93" s="8" t="str">
-        <f t="array" ref="E93">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B93,C93),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F93" s="9" t="str">
-        <f t="array" ref="F93">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B93,C93),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F93" s="8" t="str">
+        <f t="array" ref="F93">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B93,C93),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G93" s="9" t="str">
-        <f t="array" ref="G93">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B93,C93),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G93">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B93,C93),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H93" s="9" t="str">
-        <f t="array" ref="H93">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B93,C93),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H93">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B93,C93),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I93" s="9" t="str">
-        <f t="array" ref="I93">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B93,C93),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I93">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B93,C93),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J93" s="9" t="str">
-        <f t="array" ref="J93">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B93,C93),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K93" s="12" t="str">
-        <f t="array" ref="K93">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B93,C93),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J93">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B93,C93),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K93" s="9" t="str">
+        <f t="array" ref="K93">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B93,C93),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L93" s="12" t="str">
+        <f t="array" ref="L93">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B93,C93),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="8">
         <v>17.422999999999998</v>
       </c>
@@ -6371,39 +6742,43 @@
         <v>17.597000000000001</v>
       </c>
       <c r="D94" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E94" s="8" t="str">
-        <f t="array" ref="E94">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B94,C94),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F94" s="9" t="str">
-        <f t="array" ref="F94">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B94,C94),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F94" s="8" t="str">
+        <f t="array" ref="F94">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B94,C94),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G94" s="9" t="str">
-        <f t="array" ref="G94">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B94,C94),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G94">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B94,C94),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H94" s="9" t="str">
-        <f t="array" ref="H94">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B94,C94),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H94">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B94,C94),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I94" s="9" t="str">
-        <f t="array" ref="I94">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B94,C94),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I94">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B94,C94),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J94" s="9" t="str">
-        <f t="array" ref="J94">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B94,C94),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K94" s="12" t="str">
-        <f t="array" ref="K94">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B94,C94),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J94">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B94,C94),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K94" s="9" t="str">
+        <f t="array" ref="K94">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B94,C94),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L94" s="12" t="str">
+        <f t="array" ref="L94">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B94,C94),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="8">
         <v>17.597000000000001</v>
       </c>
@@ -6411,39 +6786,43 @@
         <v>17.777999999999999</v>
       </c>
       <c r="D95" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E95" s="8" t="str">
-        <f t="array" ref="E95">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B95,C95),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F95" s="9" t="str">
-        <f t="array" ref="F95">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B95,C95),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F95" s="8" t="str">
+        <f t="array" ref="F95">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B95,C95),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G95" s="9" t="str">
-        <f t="array" ref="G95">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B95,C95),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G95">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B95,C95),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H95" s="9" t="str">
-        <f t="array" ref="H95">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B95,C95),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H95">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B95,C95),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I95" s="9" t="str">
-        <f t="array" ref="I95">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B95,C95),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I95">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B95,C95),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J95" s="9" t="str">
-        <f t="array" ref="J95">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B95,C95),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K95" s="12" t="str">
-        <f t="array" ref="K95">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B95,C95),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J95">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B95,C95),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K95" s="9" t="str">
+        <f t="array" ref="K95">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B95,C95),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L95" s="12" t="str">
+        <f t="array" ref="L95">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B95,C95),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="8">
         <v>17.777999999999999</v>
       </c>
@@ -6451,39 +6830,43 @@
         <v>17.946999999999999</v>
       </c>
       <c r="D96" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E96" s="8" t="str">
-        <f t="array" ref="E96">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B96,C96),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F96" s="9" t="str">
-        <f t="array" ref="F96">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B96,C96),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F96" s="8" t="str">
+        <f t="array" ref="F96">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B96,C96),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G96" s="9" t="str">
-        <f t="array" ref="G96">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B96,C96),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G96">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B96,C96),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H96" s="9" t="str">
-        <f t="array" ref="H96">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B96,C96),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H96">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B96,C96),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I96" s="9" t="str">
-        <f t="array" ref="I96">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B96,C96),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I96">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B96,C96),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J96" s="9" t="str">
-        <f t="array" ref="J96">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B96,C96),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K96" s="12" t="str">
-        <f t="array" ref="K96">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B96,C96),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J96">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B96,C96),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K96" s="9" t="str">
+        <f t="array" ref="K96">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B96,C96),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L96" s="12" t="str">
+        <f t="array" ref="L96">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B96,C96),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="8">
         <v>17.946999999999999</v>
       </c>
@@ -6491,39 +6874,43 @@
         <v>18.093</v>
       </c>
       <c r="D97" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
       <c r="E97" s="8" t="str">
-        <f t="array" ref="E97">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B97,C97),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F97" s="9" t="str">
-        <f t="array" ref="F97">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B97,C97),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+0</v>
+      </c>
+      <c r="F97" s="8" t="str">
+        <f t="array" ref="F97">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B97,C97),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G97" s="9" t="str">
-        <f t="array" ref="G97">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B97,C97),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G97">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B97,C97),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H97" s="9" t="str">
-        <f t="array" ref="H97">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B97,C97),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H97">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B97,C97),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I97" s="9" t="str">
+        <f t="array" ref="I97">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B97,C97),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+0</v>
       </c>
-      <c r="I97" s="9" t="str">
-        <f t="array" ref="I97">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B97,C97),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="J97" s="9" t="str">
-        <f t="array" ref="J97">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B97,C97),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K97" s="12" t="str">
-        <f t="array" ref="K97">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B97,C97),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J97">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B97,C97),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K97" s="9" t="str">
+        <f t="array" ref="K97">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B97,C97),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L97" s="12" t="str">
+        <f t="array" ref="L97">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B97,C97),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="8">
         <v>18.093</v>
       </c>
@@ -6531,39 +6918,43 @@
         <v>18.238</v>
       </c>
       <c r="D98" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E98" s="8" t="str">
-        <f t="array" ref="E98">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B98,C98),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F98" s="9" t="str">
-        <f t="array" ref="F98">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B98,C98),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F98" s="8" t="str">
+        <f t="array" ref="F98">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B98,C98),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G98" s="9" t="str">
-        <f t="array" ref="G98">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B98,C98),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G98">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B98,C98),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H98" s="9" t="str">
-        <f t="array" ref="H98">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B98,C98),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H98">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B98,C98),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I98" s="9" t="str">
-        <f t="array" ref="I98">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B98,C98),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I98">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B98,C98),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J98" s="9" t="str">
-        <f t="array" ref="J98">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B98,C98),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K98" s="12" t="str">
-        <f t="array" ref="K98">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B98,C98),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J98">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B98,C98),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K98" s="9" t="str">
+        <f t="array" ref="K98">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B98,C98),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L98" s="12" t="str">
+        <f t="array" ref="L98">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B98,C98),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="8">
         <v>18.238</v>
       </c>
@@ -6571,39 +6962,43 @@
         <v>18.388000000000002</v>
       </c>
       <c r="D99" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E99" s="8" t="str">
-        <f t="array" ref="E99">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B99,C99),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F99" s="9" t="str">
-        <f t="array" ref="F99">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B99,C99),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F99" s="8" t="str">
+        <f t="array" ref="F99">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B99,C99),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G99" s="9" t="str">
-        <f t="array" ref="G99">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B99,C99),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G99">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B99,C99),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H99" s="9" t="str">
-        <f t="array" ref="H99">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B99,C99),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H99">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B99,C99),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I99" s="9" t="str">
-        <f t="array" ref="I99">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B99,C99),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I99">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B99,C99),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J99" s="9" t="str">
-        <f t="array" ref="J99">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B99,C99),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K99" s="12" t="str">
-        <f t="array" ref="K99">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B99,C99),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J99">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B99,C99),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K99" s="9" t="str">
+        <f t="array" ref="K99">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B99,C99),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L99" s="12" t="str">
+        <f t="array" ref="L99">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B99,C99),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="8">
         <v>18.388000000000002</v>
       </c>
@@ -6611,39 +7006,43 @@
         <v>18.538</v>
       </c>
       <c r="D100" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+II</v>
       </c>
       <c r="E100" s="8" t="str">
-        <f t="array" ref="E100">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B100,C100),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F100" s="9" t="str">
-        <f t="array" ref="F100">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B100,C100),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="F100" s="8" t="str">
+        <f t="array" ref="F100">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B100,C100),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G100" s="9" t="str">
-        <f t="array" ref="G100">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B100,C100),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G100">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B100,C100),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H100" s="9" t="str">
-        <f t="array" ref="H100">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B100,C100),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
-        <v>+II</v>
+        <f t="array" ref="H100">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B100,C100),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
       </c>
       <c r="I100" s="9" t="str">
-        <f t="array" ref="I100">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B100,C100),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="I100">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B100,C100),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <v>+II</v>
       </c>
       <c r="J100" s="9" t="str">
-        <f t="array" ref="J100">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B100,C100),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K100" s="12" t="str">
-        <f t="array" ref="K100">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B100,C100),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J100">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B100,C100),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K100" s="9" t="str">
+        <f t="array" ref="K100">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B100,C100),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L100" s="12" t="str">
+        <f t="array" ref="L100">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B100,C100),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="8">
         <v>18.538</v>
       </c>
@@ -6651,39 +7050,43 @@
         <v>18.683</v>
       </c>
       <c r="D101" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+III</v>
       </c>
       <c r="E101" s="8" t="str">
-        <f t="array" ref="E101">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B101,C101),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F101" s="9" t="str">
-        <f t="array" ref="F101">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B101,C101),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="F101" s="8" t="str">
+        <f t="array" ref="F101">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B101,C101),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G101" s="9" t="str">
-        <f t="array" ref="G101">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B101,C101),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G101">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B101,C101),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H101" s="9" t="str">
-        <f t="array" ref="H101">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B101,C101),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H101">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B101,C101),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I101" s="9" t="str">
-        <f t="array" ref="I101">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B101,C101),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I101">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B101,C101),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J101" s="9" t="str">
-        <f t="array" ref="J101">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B101,C101),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K101" s="12" t="str">
-        <f t="array" ref="K101">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B101,C101),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J101">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B101,C101),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K101" s="9" t="str">
+        <f t="array" ref="K101">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B101,C101),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L101" s="12" t="str">
+        <f t="array" ref="L101">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B101,C101),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="8">
         <v>18.683</v>
       </c>
@@ -6691,39 +7094,43 @@
         <v>18.823</v>
       </c>
       <c r="D102" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+III</v>
       </c>
       <c r="E102" s="8" t="str">
-        <f t="array" ref="E102">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B102,C102),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F102" s="9" t="str">
-        <f t="array" ref="F102">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B102,C102),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="F102" s="8" t="str">
+        <f t="array" ref="F102">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B102,C102),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G102" s="9" t="str">
-        <f t="array" ref="G102">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B102,C102),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G102">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B102,C102),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H102" s="9" t="str">
-        <f t="array" ref="H102">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B102,C102),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H102">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B102,C102),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I102" s="9" t="str">
-        <f t="array" ref="I102">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B102,C102),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I102">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B102,C102),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J102" s="9" t="str">
-        <f t="array" ref="J102">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B102,C102),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K102" s="12" t="str">
-        <f t="array" ref="K102">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B102,C102),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J102">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B102,C102),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K102" s="9" t="str">
+        <f t="array" ref="K102">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B102,C102),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L102" s="12" t="str">
+        <f t="array" ref="L102">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B102,C102),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="8">
         <v>18.823</v>
       </c>
@@ -6731,39 +7138,43 @@
         <v>18.957999999999998</v>
       </c>
       <c r="D103" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+III</v>
       </c>
       <c r="E103" s="8" t="str">
-        <f t="array" ref="E103">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B103,C103),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F103" s="9" t="str">
-        <f t="array" ref="F103">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B103,C103),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="F103" s="8" t="str">
+        <f t="array" ref="F103">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B103,C103),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G103" s="9" t="str">
-        <f t="array" ref="G103">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B103,C103),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G103">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B103,C103),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H103" s="9" t="str">
-        <f t="array" ref="H103">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B103,C103),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H103">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B103,C103),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I103" s="9" t="str">
-        <f t="array" ref="I103">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B103,C103),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I103">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B103,C103),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J103" s="9" t="str">
-        <f t="array" ref="J103">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B103,C103),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K103" s="12" t="str">
-        <f t="array" ref="K103">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B103,C103),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J103">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B103,C103),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K103" s="9" t="str">
+        <f t="array" ref="K103">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B103,C103),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L103" s="12" t="str">
+        <f t="array" ref="L103">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B103,C103),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="8">
         <v>18.957999999999998</v>
       </c>
@@ -6771,39 +7182,43 @@
         <v>19.088000000000001</v>
       </c>
       <c r="D104" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+III</v>
       </c>
       <c r="E104" s="8" t="str">
-        <f t="array" ref="E104">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B104,C104),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F104" s="9" t="str">
-        <f t="array" ref="F104">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B104,C104),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="F104" s="8" t="str">
+        <f t="array" ref="F104">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B104,C104),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G104" s="9" t="str">
-        <f t="array" ref="G104">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B104,C104),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G104">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B104,C104),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H104" s="9" t="str">
-        <f t="array" ref="H104">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B104,C104),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H104">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B104,C104),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I104" s="9" t="str">
-        <f t="array" ref="I104">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B104,C104),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I104">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B104,C104),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J104" s="9" t="str">
-        <f t="array" ref="J104">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B104,C104),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K104" s="12" t="str">
-        <f t="array" ref="K104">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B104,C104),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J104">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B104,C104),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K104" s="9" t="str">
+        <f t="array" ref="K104">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B104,C104),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L104" s="12" t="str">
+        <f t="array" ref="L104">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B104,C104),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="8">
         <v>19.088000000000001</v>
       </c>
@@ -6811,39 +7226,43 @@
         <v>19.382999999999999</v>
       </c>
       <c r="D105" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+III</v>
       </c>
       <c r="E105" s="8" t="str">
-        <f t="array" ref="E105">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B105,C105),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F105" s="9" t="str">
-        <f t="array" ref="F105">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B105,C105),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="F105" s="8" t="str">
+        <f t="array" ref="F105">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B105,C105),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G105" s="9" t="str">
-        <f t="array" ref="G105">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B105,C105),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G105">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B105,C105),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H105" s="9" t="str">
-        <f t="array" ref="H105">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B105,C105),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H105">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B105,C105),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I105" s="9" t="str">
-        <f t="array" ref="I105">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B105,C105),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I105">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B105,C105),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+III</v>
       </c>
       <c r="J105" s="9" t="str">
-        <f t="array" ref="J105">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B105,C105),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K105" s="12" t="str">
-        <f t="array" ref="K105">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B105,C105),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="array" ref="J105">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B105,C105),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K105" s="9" t="str">
+        <f t="array" ref="K105">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B105,C105),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L105" s="12" t="str">
+        <f t="array" ref="L105">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B105,C105),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="13">
         <v>19.382999999999999</v>
       </c>
@@ -6851,55 +7270,59 @@
         <v>19.744</v>
       </c>
       <c r="D106" s="24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>+0</v>
       </c>
       <c r="E106" s="13" t="str">
-        <f t="array" ref="E106">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B106,C106),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="F106" s="14" t="str">
-        <f t="array" ref="F106">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B106,C106),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="shared" si="3"/>
+        <v>+0</v>
+      </c>
+      <c r="F106" s="13" t="str">
+        <f t="array" ref="F106">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B106,C106),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G106" s="14" t="str">
-        <f t="array" ref="G106">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B106,C106),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G106">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B106,C106),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="H106" s="14" t="str">
-        <f t="array" ref="H106">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B106,C106),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
+        <f t="array" ref="H106">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B106,C106),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="I106" s="14" t="str">
+        <f t="array" ref="I106">INDEX(DA!$K$11:$K$135,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$135&gt;AVERAGE(B106,C106),DA!$D$11:$D$135)),DA!$D$11:$D$135),1))</f>
         <v>+0</v>
       </c>
-      <c r="I106" s="14" t="str">
-        <f t="array" ref="I106">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B106,C106),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="J106" s="14" t="str">
-        <f t="array" ref="J106">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B106,C106),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K106" s="17" t="str">
-        <f t="array" ref="K106">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B106,C106),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J106">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B106,C106),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K106" s="14" t="str">
+        <f t="array" ref="K106">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B106,C106),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L106" s="17" t="str">
+        <f t="array" ref="L106">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B106,C106),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C108" s="9"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C109" s="9"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C112" s="9"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
@@ -6984,7 +7407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
